--- a/biology/Zoologie/Faune_du_sol/Faune_du_sol.xlsx
+++ b/biology/Zoologie/Faune_du_sol/Faune_du_sol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La faune du sol ou pédofaune est l'ensemble de la faune effectuant tout son cycle de vie dans le sol.
-La pédofaune participe à la biodiversité du sol et joue un rôle fondamental pour la production et l'entretien de l'humus[1]. Certains organismes de la microfaune et de la mésofaune du sols sont utilisés comme bioindicateurs (ex : Lombric, nématodes[2], Collemboles[3]).
-En fonction de la taille des espèces, on la divise en macrofaune, mésofaune ou microfaune. L'évaluation des populations de cette faune peut être réalisée en utilisant des montages simples comme le tamis de Winckler-Moczarsky, le dispositif de Berlese ou de Baermann[4].
+La pédofaune participe à la biodiversité du sol et joue un rôle fondamental pour la production et l'entretien de l'humus. Certains organismes de la microfaune et de la mésofaune du sols sont utilisés comme bioindicateurs (ex : Lombric, nématodes, Collemboles).
+En fonction de la taille des espèces, on la divise en macrofaune, mésofaune ou microfaune. L'évaluation des populations de cette faune peut être réalisée en utilisant des montages simples comme le tamis de Winckler-Moczarsky, le dispositif de Berlese ou de Baermann.
 La pédofaune est le compartiment animal de l'édaphon.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Collemboles
 Myriapodes
